--- a/all_times_2/Runs_reports_static_lot/all_times_2_static_pnl_growth_report_TR1500_DD1500_SZ1_TDDTrue.xlsx
+++ b/all_times_2/Runs_reports_static_lot/all_times_2_static_pnl_growth_report_TR1500_DD1500_SZ1_TDDTrue.xlsx
@@ -123,10 +123,10 @@
     <t>Mode days to blowup</t>
   </si>
   <si>
-    <t>80.4%</t>
+    <t>76.5%</t>
   </si>
   <si>
-    <t>19.6%</t>
+    <t>23.5%</t>
   </si>
   <si>
     <t>Took_days</t>
@@ -5608,7 +5608,7 @@
         <v>13</v>
       </c>
       <c r="D197">
-        <v>1995</v>
+        <v>2077</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -5683,10 +5683,10 @@
         <v>43889</v>
       </c>
       <c r="C200">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D200">
-        <v>1590</v>
+        <v>1632</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="H200" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
@@ -5709,10 +5709,10 @@
         <v>43892</v>
       </c>
       <c r="C201">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D201">
-        <v>1590</v>
+        <v>1632</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -5724,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="H201" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="I201" t="b">
         <v>1</v>
@@ -5735,10 +5735,10 @@
         <v>43893</v>
       </c>
       <c r="C202">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D202">
-        <v>1590</v>
+        <v>1557</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -5750,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="H202" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="I202" t="b">
         <v>1</v>
@@ -5761,10 +5761,10 @@
         <v>43894</v>
       </c>
       <c r="C203">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D203">
-        <v>1590</v>
+        <v>1557</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="H203" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="I203" t="b">
         <v>1</v>
@@ -5787,10 +5787,10 @@
         <v>43895</v>
       </c>
       <c r="C204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D204">
-        <v>1590</v>
+        <v>1557</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="H204" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="I204" t="b">
         <v>1</v>
@@ -5813,10 +5813,10 @@
         <v>43896</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D205">
-        <v>1565.5</v>
+        <v>1557</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -5828,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="H205" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="I205" t="b">
         <v>1</v>
@@ -8204,11 +8204,11 @@
       <c r="A297" s="2">
         <v>44027</v>
       </c>
-      <c r="B297">
-        <v>81</v>
+      <c r="C297">
+        <v>60</v>
       </c>
       <c r="D297">
-        <v>549.5</v>
+        <v>1535</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -8220,10 +8220,10 @@
         <v>1</v>
       </c>
       <c r="H297" s="2">
-        <v>44139</v>
+        <v>44110</v>
       </c>
       <c r="I297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -8750,11 +8750,11 @@
       <c r="A318" s="2">
         <v>44056</v>
       </c>
-      <c r="B318">
-        <v>60</v>
+      <c r="C318">
+        <v>39</v>
       </c>
       <c r="D318">
-        <v>34.5</v>
+        <v>1535</v>
       </c>
       <c r="E318">
         <v>1</v>
@@ -8766,21 +8766,21 @@
         <v>1</v>
       </c>
       <c r="H318" s="2">
-        <v>44139</v>
+        <v>44110</v>
       </c>
       <c r="I318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="2">
         <v>44057</v>
       </c>
-      <c r="B319">
-        <v>59</v>
+      <c r="C319">
+        <v>38</v>
       </c>
       <c r="D319">
-        <v>46</v>
+        <v>1535</v>
       </c>
       <c r="E319">
         <v>1</v>
@@ -8792,21 +8792,21 @@
         <v>1</v>
       </c>
       <c r="H319" s="2">
-        <v>44139</v>
+        <v>44110</v>
       </c>
       <c r="I319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="2">
         <v>44060</v>
       </c>
-      <c r="B320">
-        <v>58</v>
+      <c r="C320">
+        <v>37</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>1535</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -8818,21 +8818,21 @@
         <v>1</v>
       </c>
       <c r="H320" s="2">
-        <v>44139</v>
+        <v>44110</v>
       </c>
       <c r="I320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="2">
         <v>44061</v>
       </c>
-      <c r="B321">
-        <v>57</v>
+      <c r="C321">
+        <v>36</v>
       </c>
       <c r="D321">
-        <v>8.5</v>
+        <v>1535</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -8844,21 +8844,21 @@
         <v>1</v>
       </c>
       <c r="H321" s="2">
-        <v>44139</v>
+        <v>44110</v>
       </c>
       <c r="I321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:9">
       <c r="A322" s="2">
         <v>44062</v>
       </c>
-      <c r="B322">
-        <v>57</v>
+      <c r="C322">
+        <v>35</v>
       </c>
       <c r="D322">
-        <v>116</v>
+        <v>1535</v>
       </c>
       <c r="E322">
         <v>1</v>
@@ -8870,21 +8870,21 @@
         <v>1</v>
       </c>
       <c r="H322" s="2">
-        <v>44140</v>
+        <v>44110</v>
       </c>
       <c r="I322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="2">
         <v>44063</v>
       </c>
-      <c r="B323">
-        <v>56</v>
+      <c r="C323">
+        <v>34</v>
       </c>
       <c r="D323">
-        <v>85</v>
+        <v>1535</v>
       </c>
       <c r="E323">
         <v>1</v>
@@ -8896,21 +8896,21 @@
         <v>1</v>
       </c>
       <c r="H323" s="2">
-        <v>44140</v>
+        <v>44110</v>
       </c>
       <c r="I323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:9">
       <c r="A324" s="2">
         <v>44064</v>
       </c>
-      <c r="B324">
-        <v>84</v>
+      <c r="C324">
+        <v>33</v>
       </c>
       <c r="D324">
-        <v>398.5</v>
+        <v>1535</v>
       </c>
       <c r="E324">
         <v>1</v>
@@ -8922,21 +8922,21 @@
         <v>1</v>
       </c>
       <c r="H324" s="2">
-        <v>44181</v>
+        <v>44110</v>
       </c>
       <c r="I324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:9">
       <c r="A325" s="2">
         <v>44067</v>
       </c>
-      <c r="B325">
-        <v>83</v>
+      <c r="C325">
+        <v>32</v>
       </c>
       <c r="D325">
-        <v>423</v>
+        <v>1535</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -8948,21 +8948,21 @@
         <v>1</v>
       </c>
       <c r="H325" s="2">
-        <v>44181</v>
+        <v>44110</v>
       </c>
       <c r="I325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:9">
       <c r="A326" s="2">
         <v>44068</v>
       </c>
-      <c r="B326">
-        <v>83</v>
+      <c r="C326">
+        <v>31</v>
       </c>
       <c r="D326">
-        <v>464.5</v>
+        <v>1535</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -8974,21 +8974,21 @@
         <v>1</v>
       </c>
       <c r="H326" s="2">
-        <v>44182</v>
+        <v>44110</v>
       </c>
       <c r="I326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:9">
       <c r="A327" s="2">
         <v>44069</v>
       </c>
-      <c r="B327">
-        <v>84</v>
+      <c r="C327">
+        <v>30</v>
       </c>
       <c r="D327">
-        <v>516.5</v>
+        <v>1535</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -9000,21 +9000,21 @@
         <v>1</v>
       </c>
       <c r="H327" s="2">
-        <v>44186</v>
+        <v>44110</v>
       </c>
       <c r="I327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:9">
       <c r="A328" s="2">
         <v>44070</v>
       </c>
-      <c r="B328">
-        <v>80</v>
+      <c r="C328">
+        <v>29</v>
       </c>
       <c r="D328">
-        <v>395.5</v>
+        <v>1535</v>
       </c>
       <c r="E328">
         <v>1</v>
@@ -9026,21 +9026,21 @@
         <v>1</v>
       </c>
       <c r="H328" s="2">
-        <v>44181</v>
+        <v>44110</v>
       </c>
       <c r="I328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="2">
         <v>44071</v>
       </c>
-      <c r="B329">
-        <v>78</v>
+      <c r="C329">
+        <v>28</v>
       </c>
       <c r="D329">
-        <v>291.5</v>
+        <v>1535</v>
       </c>
       <c r="E329">
         <v>1</v>
@@ -9052,21 +9052,21 @@
         <v>1</v>
       </c>
       <c r="H329" s="2">
-        <v>44180</v>
+        <v>44110</v>
       </c>
       <c r="I329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:9">
       <c r="A330" s="2">
         <v>44074</v>
       </c>
-      <c r="B330">
-        <v>81</v>
+      <c r="C330">
+        <v>27</v>
       </c>
       <c r="D330">
-        <v>529</v>
+        <v>1535</v>
       </c>
       <c r="E330">
         <v>1</v>
@@ -9078,21 +9078,21 @@
         <v>1</v>
       </c>
       <c r="H330" s="2">
-        <v>44186</v>
+        <v>44110</v>
       </c>
       <c r="I330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:9">
       <c r="A331" s="2">
         <v>44075</v>
       </c>
-      <c r="B331">
-        <v>77</v>
+      <c r="C331">
+        <v>26</v>
       </c>
       <c r="D331">
-        <v>420</v>
+        <v>1535</v>
       </c>
       <c r="E331">
         <v>1</v>
@@ -9104,21 +9104,21 @@
         <v>1</v>
       </c>
       <c r="H331" s="2">
-        <v>44181</v>
+        <v>44110</v>
       </c>
       <c r="I331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="2">
         <v>44076</v>
       </c>
-      <c r="B332">
-        <v>79</v>
+      <c r="C332">
+        <v>25</v>
       </c>
       <c r="D332">
-        <v>553</v>
+        <v>1535</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -9130,21 +9130,21 @@
         <v>1</v>
       </c>
       <c r="H332" s="2">
-        <v>44186</v>
+        <v>44110</v>
       </c>
       <c r="I332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="2">
         <v>44077</v>
       </c>
-      <c r="B333">
-        <v>82</v>
+      <c r="C333">
+        <v>24</v>
       </c>
       <c r="D333">
-        <v>712.5</v>
+        <v>1535</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -9156,21 +9156,21 @@
         <v>1</v>
       </c>
       <c r="H333" s="2">
-        <v>44193</v>
+        <v>44110</v>
       </c>
       <c r="I333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="2">
         <v>44078</v>
       </c>
-      <c r="B334">
-        <v>74</v>
+      <c r="C334">
+        <v>23</v>
       </c>
       <c r="D334">
-        <v>418</v>
+        <v>1535</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -9182,21 +9182,21 @@
         <v>1</v>
       </c>
       <c r="H334" s="2">
-        <v>44181</v>
+        <v>44110</v>
       </c>
       <c r="I334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="2">
         <v>44081</v>
       </c>
-      <c r="B335">
-        <v>136</v>
+      <c r="C335">
+        <v>22</v>
       </c>
       <c r="D335">
-        <v>1089.5</v>
+        <v>1535</v>
       </c>
       <c r="E335">
         <v>1</v>
@@ -9208,21 +9208,21 @@
         <v>1</v>
       </c>
       <c r="H335" s="2">
-        <v>44272</v>
+        <v>44110</v>
       </c>
       <c r="I335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="2">
         <v>44082</v>
       </c>
-      <c r="B336">
-        <v>135</v>
+      <c r="C336">
+        <v>21</v>
       </c>
       <c r="D336">
-        <v>1070</v>
+        <v>1535</v>
       </c>
       <c r="E336">
         <v>1</v>
@@ -9234,21 +9234,21 @@
         <v>1</v>
       </c>
       <c r="H336" s="2">
-        <v>44272</v>
+        <v>44110</v>
       </c>
       <c r="I336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="2">
         <v>44083</v>
       </c>
-      <c r="B337">
-        <v>74</v>
+      <c r="C337">
+        <v>20</v>
       </c>
       <c r="D337">
-        <v>597.5</v>
+        <v>1535</v>
       </c>
       <c r="E337">
         <v>1</v>
@@ -9260,21 +9260,21 @@
         <v>1</v>
       </c>
       <c r="H337" s="2">
-        <v>44186</v>
+        <v>44110</v>
       </c>
       <c r="I337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="2">
         <v>44084</v>
       </c>
-      <c r="B338">
-        <v>132</v>
+      <c r="C338">
+        <v>19</v>
       </c>
       <c r="D338">
-        <v>1021</v>
+        <v>1535</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -9286,21 +9286,21 @@
         <v>1</v>
       </c>
       <c r="H338" s="2">
-        <v>44271</v>
+        <v>44110</v>
       </c>
       <c r="I338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:9">
       <c r="A339" s="2">
         <v>44085</v>
       </c>
-      <c r="B339">
-        <v>139</v>
+      <c r="C339">
+        <v>18</v>
       </c>
       <c r="D339">
-        <v>1261.5</v>
+        <v>1535</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -9312,21 +9312,21 @@
         <v>1</v>
       </c>
       <c r="H339" s="2">
-        <v>44281</v>
+        <v>44110</v>
       </c>
       <c r="I339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="2">
         <v>44088</v>
       </c>
-      <c r="B340">
-        <v>138</v>
+      <c r="C340">
+        <v>17</v>
       </c>
       <c r="D340">
-        <v>1210.5</v>
+        <v>1535</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -9338,21 +9338,21 @@
         <v>1</v>
       </c>
       <c r="H340" s="2">
-        <v>44281</v>
+        <v>44110</v>
       </c>
       <c r="I340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" s="2">
         <v>44089</v>
       </c>
-      <c r="B341">
-        <v>137</v>
+      <c r="C341">
+        <v>16</v>
       </c>
       <c r="D341">
-        <v>1235.5</v>
+        <v>1535</v>
       </c>
       <c r="E341">
         <v>1</v>
@@ -9364,21 +9364,21 @@
         <v>1</v>
       </c>
       <c r="H341" s="2">
-        <v>44281</v>
+        <v>44110</v>
       </c>
       <c r="I341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="2">
         <v>44090</v>
       </c>
-      <c r="B342">
-        <v>136</v>
+      <c r="C342">
+        <v>15</v>
       </c>
       <c r="D342">
-        <v>1378</v>
+        <v>1535</v>
       </c>
       <c r="E342">
         <v>1</v>
@@ -9390,10 +9390,10 @@
         <v>1</v>
       </c>
       <c r="H342" s="2">
-        <v>44281</v>
+        <v>44110</v>
       </c>
       <c r="I342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -12910,11 +12910,11 @@
       <c r="A478" s="2">
         <v>44284</v>
       </c>
-      <c r="B478">
-        <v>111</v>
+      <c r="C478">
+        <v>51</v>
       </c>
       <c r="D478">
-        <v>67</v>
+        <v>1502</v>
       </c>
       <c r="E478">
         <v>1</v>
@@ -12926,21 +12926,21 @@
         <v>1</v>
       </c>
       <c r="H478" s="2">
-        <v>44438</v>
+        <v>44354</v>
       </c>
       <c r="I478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:9">
       <c r="A479" s="2">
         <v>44285</v>
       </c>
-      <c r="B479">
-        <v>116</v>
+      <c r="C479">
+        <v>50</v>
       </c>
       <c r="D479">
-        <v>201</v>
+        <v>1502</v>
       </c>
       <c r="E479">
         <v>1</v>
@@ -12952,21 +12952,21 @@
         <v>1</v>
       </c>
       <c r="H479" s="2">
-        <v>44446</v>
+        <v>44354</v>
       </c>
       <c r="I479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:9">
       <c r="A480" s="2">
         <v>44286</v>
       </c>
-      <c r="B480">
-        <v>109</v>
+      <c r="C480">
+        <v>49</v>
       </c>
       <c r="D480">
-        <v>54</v>
+        <v>1502</v>
       </c>
       <c r="E480">
         <v>1</v>
@@ -12978,21 +12978,21 @@
         <v>1</v>
       </c>
       <c r="H480" s="2">
-        <v>44438</v>
+        <v>44354</v>
       </c>
       <c r="I480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:9">
       <c r="A481" s="2">
         <v>44287</v>
       </c>
-      <c r="B481">
-        <v>126</v>
+      <c r="C481">
+        <v>48</v>
       </c>
       <c r="D481">
-        <v>283</v>
+        <v>1502</v>
       </c>
       <c r="E481">
         <v>1</v>
@@ -13004,21 +13004,21 @@
         <v>1</v>
       </c>
       <c r="H481" s="2">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="I481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:9">
       <c r="A482" s="2">
         <v>44288</v>
       </c>
-      <c r="B482">
-        <v>114</v>
+      <c r="C482">
+        <v>47</v>
       </c>
       <c r="D482">
-        <v>254.5</v>
+        <v>1502</v>
       </c>
       <c r="E482">
         <v>1</v>
@@ -13030,21 +13030,21 @@
         <v>1</v>
       </c>
       <c r="H482" s="2">
-        <v>44447</v>
+        <v>44354</v>
       </c>
       <c r="I482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:9">
       <c r="A483" s="2">
         <v>44291</v>
       </c>
-      <c r="B483">
-        <v>124</v>
+      <c r="C483">
+        <v>46</v>
       </c>
       <c r="D483">
-        <v>353.5</v>
+        <v>1502</v>
       </c>
       <c r="E483">
         <v>1</v>
@@ -13056,21 +13056,21 @@
         <v>1</v>
       </c>
       <c r="H483" s="2">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="I483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:9">
       <c r="A484" s="2">
         <v>44292</v>
       </c>
-      <c r="B484">
-        <v>123</v>
+      <c r="C484">
+        <v>45</v>
       </c>
       <c r="D484">
-        <v>344</v>
+        <v>1502</v>
       </c>
       <c r="E484">
         <v>1</v>
@@ -13082,21 +13082,21 @@
         <v>1</v>
       </c>
       <c r="H484" s="2">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="I484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:9">
       <c r="A485" s="2">
         <v>44293</v>
       </c>
-      <c r="B485">
-        <v>122</v>
+      <c r="C485">
+        <v>44</v>
       </c>
       <c r="D485">
-        <v>280.5</v>
+        <v>1502</v>
       </c>
       <c r="E485">
         <v>1</v>
@@ -13108,21 +13108,21 @@
         <v>1</v>
       </c>
       <c r="H485" s="2">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="I485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:9">
       <c r="A486" s="2">
         <v>44294</v>
       </c>
-      <c r="B486">
-        <v>121</v>
+      <c r="C486">
+        <v>43</v>
       </c>
       <c r="D486">
-        <v>294.5</v>
+        <v>1502</v>
       </c>
       <c r="E486">
         <v>1</v>
@@ -13134,21 +13134,21 @@
         <v>1</v>
       </c>
       <c r="H486" s="2">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="I486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:9">
       <c r="A487" s="2">
         <v>44295</v>
       </c>
-      <c r="B487">
-        <v>120</v>
+      <c r="C487">
+        <v>42</v>
       </c>
       <c r="D487">
-        <v>395.5</v>
+        <v>1502</v>
       </c>
       <c r="E487">
         <v>1</v>
@@ -13160,21 +13160,21 @@
         <v>1</v>
       </c>
       <c r="H487" s="2">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="I487" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:9">
       <c r="A488" s="2">
         <v>44298</v>
       </c>
-      <c r="B488">
-        <v>129</v>
+      <c r="C488">
+        <v>41</v>
       </c>
       <c r="D488">
-        <v>569</v>
+        <v>1502</v>
       </c>
       <c r="E488">
         <v>1</v>
@@ -13186,21 +13186,21 @@
         <v>1</v>
       </c>
       <c r="H488" s="2">
-        <v>44476</v>
+        <v>44354</v>
       </c>
       <c r="I488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:9">
       <c r="A489" s="2">
         <v>44299</v>
       </c>
-      <c r="B489">
-        <v>128</v>
+      <c r="C489">
+        <v>40</v>
       </c>
       <c r="D489">
-        <v>588</v>
+        <v>1502</v>
       </c>
       <c r="E489">
         <v>1</v>
@@ -13212,21 +13212,21 @@
         <v>1</v>
       </c>
       <c r="H489" s="2">
-        <v>44476</v>
+        <v>44354</v>
       </c>
       <c r="I489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:9">
       <c r="A490" s="2">
         <v>44300</v>
       </c>
-      <c r="B490">
-        <v>132</v>
+      <c r="C490">
+        <v>39</v>
       </c>
       <c r="D490">
-        <v>883</v>
+        <v>1502</v>
       </c>
       <c r="E490">
         <v>1</v>
@@ -13238,21 +13238,21 @@
         <v>1</v>
       </c>
       <c r="H490" s="2">
-        <v>44483</v>
+        <v>44354</v>
       </c>
       <c r="I490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:9">
       <c r="A491" s="2">
         <v>44301</v>
       </c>
-      <c r="B491">
-        <v>131</v>
+      <c r="C491">
+        <v>38</v>
       </c>
       <c r="D491">
-        <v>870.5</v>
+        <v>1502</v>
       </c>
       <c r="E491">
         <v>1</v>
@@ -13264,21 +13264,21 @@
         <v>1</v>
       </c>
       <c r="H491" s="2">
-        <v>44483</v>
+        <v>44354</v>
       </c>
       <c r="I491" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:9">
       <c r="A492" s="2">
         <v>44302</v>
       </c>
-      <c r="B492">
-        <v>130</v>
+      <c r="C492">
+        <v>37</v>
       </c>
       <c r="D492">
-        <v>905.5</v>
+        <v>1502</v>
       </c>
       <c r="E492">
         <v>1</v>
@@ -13290,21 +13290,21 @@
         <v>1</v>
       </c>
       <c r="H492" s="2">
-        <v>44483</v>
+        <v>44354</v>
       </c>
       <c r="I492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:9">
       <c r="A493" s="2">
         <v>44305</v>
       </c>
-      <c r="B493">
-        <v>130</v>
+      <c r="C493">
+        <v>36</v>
       </c>
       <c r="D493">
-        <v>950.5</v>
+        <v>1502</v>
       </c>
       <c r="E493">
         <v>1</v>
@@ -13316,21 +13316,21 @@
         <v>1</v>
       </c>
       <c r="H493" s="2">
-        <v>44484</v>
+        <v>44354</v>
       </c>
       <c r="I493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:9">
       <c r="A494" s="2">
         <v>44306</v>
       </c>
-      <c r="B494">
-        <v>129</v>
+      <c r="C494">
+        <v>35</v>
       </c>
       <c r="D494">
-        <v>927</v>
+        <v>1502</v>
       </c>
       <c r="E494">
         <v>1</v>
@@ -13342,21 +13342,21 @@
         <v>1</v>
       </c>
       <c r="H494" s="2">
-        <v>44484</v>
+        <v>44354</v>
       </c>
       <c r="I494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:9">
       <c r="A495" s="2">
         <v>44307</v>
       </c>
-      <c r="B495">
-        <v>127</v>
+      <c r="C495">
+        <v>34</v>
       </c>
       <c r="D495">
-        <v>889.5</v>
+        <v>1502</v>
       </c>
       <c r="E495">
         <v>1</v>
@@ -13368,21 +13368,21 @@
         <v>1</v>
       </c>
       <c r="H495" s="2">
-        <v>44483</v>
+        <v>44354</v>
       </c>
       <c r="I495" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:9">
       <c r="A496" s="2">
         <v>44308</v>
       </c>
-      <c r="B496">
-        <v>127</v>
+      <c r="C496">
+        <v>33</v>
       </c>
       <c r="D496">
-        <v>1009</v>
+        <v>1502</v>
       </c>
       <c r="E496">
         <v>1</v>
@@ -13394,21 +13394,21 @@
         <v>1</v>
       </c>
       <c r="H496" s="2">
-        <v>44484</v>
+        <v>44354</v>
       </c>
       <c r="I496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:9">
       <c r="A497" s="2">
         <v>44309</v>
       </c>
-      <c r="B497">
-        <v>126</v>
+      <c r="C497">
+        <v>32</v>
       </c>
       <c r="D497">
-        <v>934.5</v>
+        <v>1502</v>
       </c>
       <c r="E497">
         <v>1</v>
@@ -13420,21 +13420,21 @@
         <v>1</v>
       </c>
       <c r="H497" s="2">
-        <v>44484</v>
+        <v>44354</v>
       </c>
       <c r="I497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:9">
       <c r="A498" s="2">
         <v>44312</v>
       </c>
-      <c r="B498">
-        <v>125</v>
+      <c r="C498">
+        <v>31</v>
       </c>
       <c r="D498">
-        <v>1047</v>
+        <v>1502</v>
       </c>
       <c r="E498">
         <v>1</v>
@@ -13446,21 +13446,21 @@
         <v>1</v>
       </c>
       <c r="H498" s="2">
-        <v>44484</v>
+        <v>44354</v>
       </c>
       <c r="I498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:9">
       <c r="A499" s="2">
         <v>44313</v>
       </c>
-      <c r="B499">
-        <v>124</v>
+      <c r="C499">
+        <v>30</v>
       </c>
       <c r="D499">
-        <v>1115.5</v>
+        <v>1502</v>
       </c>
       <c r="E499">
         <v>1</v>
@@ -13472,21 +13472,21 @@
         <v>1</v>
       </c>
       <c r="H499" s="2">
-        <v>44484</v>
+        <v>44354</v>
       </c>
       <c r="I499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:9">
       <c r="A500" s="2">
         <v>44314</v>
       </c>
-      <c r="B500">
-        <v>123</v>
+      <c r="C500">
+        <v>29</v>
       </c>
       <c r="D500">
-        <v>1009.5</v>
+        <v>1502</v>
       </c>
       <c r="E500">
         <v>1</v>
@@ -13498,21 +13498,21 @@
         <v>1</v>
       </c>
       <c r="H500" s="2">
-        <v>44484</v>
+        <v>44354</v>
       </c>
       <c r="I500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:9">
       <c r="A501" s="2">
         <v>44315</v>
       </c>
-      <c r="B501">
-        <v>121</v>
+      <c r="C501">
+        <v>28</v>
       </c>
       <c r="D501">
-        <v>866</v>
+        <v>1502</v>
       </c>
       <c r="E501">
         <v>1</v>
@@ -13524,21 +13524,21 @@
         <v>1</v>
       </c>
       <c r="H501" s="2">
-        <v>44483</v>
+        <v>44354</v>
       </c>
       <c r="I501" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:9">
       <c r="A502" s="2">
         <v>44316</v>
       </c>
-      <c r="B502">
-        <v>121</v>
+      <c r="C502">
+        <v>27</v>
       </c>
       <c r="D502">
-        <v>1026</v>
+        <v>1502</v>
       </c>
       <c r="E502">
         <v>1</v>
@@ -13550,21 +13550,21 @@
         <v>1</v>
       </c>
       <c r="H502" s="2">
-        <v>44484</v>
+        <v>44354</v>
       </c>
       <c r="I502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:9">
       <c r="A503" s="2">
         <v>44319</v>
       </c>
-      <c r="B503">
-        <v>119</v>
+      <c r="C503">
+        <v>26</v>
       </c>
       <c r="D503">
-        <v>913.5</v>
+        <v>1502</v>
       </c>
       <c r="E503">
         <v>1</v>
@@ -13576,21 +13576,21 @@
         <v>1</v>
       </c>
       <c r="H503" s="2">
-        <v>44483</v>
+        <v>44354</v>
       </c>
       <c r="I503" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:9">
       <c r="A504" s="2">
         <v>44320</v>
       </c>
-      <c r="B504">
-        <v>119</v>
+      <c r="C504">
+        <v>25</v>
       </c>
       <c r="D504">
-        <v>1014</v>
+        <v>1502</v>
       </c>
       <c r="E504">
         <v>1</v>
@@ -13602,21 +13602,21 @@
         <v>1</v>
       </c>
       <c r="H504" s="2">
-        <v>44484</v>
+        <v>44354</v>
       </c>
       <c r="I504" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:9">
       <c r="A505" s="2">
         <v>44321</v>
       </c>
-      <c r="B505">
-        <v>118</v>
+      <c r="C505">
+        <v>24</v>
       </c>
       <c r="D505">
-        <v>1047</v>
+        <v>1502</v>
       </c>
       <c r="E505">
         <v>1</v>
@@ -13628,21 +13628,21 @@
         <v>1</v>
       </c>
       <c r="H505" s="2">
-        <v>44484</v>
+        <v>44354</v>
       </c>
       <c r="I505" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:9">
       <c r="A506" s="2">
         <v>44322</v>
       </c>
-      <c r="B506">
-        <v>117</v>
+      <c r="C506">
+        <v>23</v>
       </c>
       <c r="D506">
-        <v>985</v>
+        <v>1502</v>
       </c>
       <c r="E506">
         <v>1</v>
@@ -13654,21 +13654,21 @@
         <v>1</v>
       </c>
       <c r="H506" s="2">
-        <v>44484</v>
+        <v>44354</v>
       </c>
       <c r="I506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:9">
       <c r="A507" s="2">
         <v>44323</v>
       </c>
-      <c r="B507">
-        <v>121</v>
+      <c r="C507">
+        <v>22</v>
       </c>
       <c r="D507">
-        <v>1398</v>
+        <v>1502</v>
       </c>
       <c r="E507">
         <v>1</v>
@@ -13680,10 +13680,10 @@
         <v>1</v>
       </c>
       <c r="H507" s="2">
-        <v>44491</v>
+        <v>44354</v>
       </c>
       <c r="I507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:9">
@@ -17386,7 +17386,7 @@
         <v>42</v>
       </c>
       <c r="D650">
-        <v>1596</v>
+        <v>1646.5</v>
       </c>
       <c r="E650">
         <v>1</v>
@@ -17412,7 +17412,7 @@
         <v>41</v>
       </c>
       <c r="D651">
-        <v>1596</v>
+        <v>1646.5</v>
       </c>
       <c r="E651">
         <v>1</v>
@@ -17438,7 +17438,7 @@
         <v>40</v>
       </c>
       <c r="D652">
-        <v>1596</v>
+        <v>1646.5</v>
       </c>
       <c r="E652">
         <v>1</v>
@@ -17464,7 +17464,7 @@
         <v>39</v>
       </c>
       <c r="D653">
-        <v>1596</v>
+        <v>1646.5</v>
       </c>
       <c r="E653">
         <v>1</v>
@@ -17490,7 +17490,7 @@
         <v>38</v>
       </c>
       <c r="D654">
-        <v>1596</v>
+        <v>1646.5</v>
       </c>
       <c r="E654">
         <v>1</v>
@@ -17516,7 +17516,7 @@
         <v>37</v>
       </c>
       <c r="D655">
-        <v>1596</v>
+        <v>1646.5</v>
       </c>
       <c r="E655">
         <v>1</v>
@@ -17542,7 +17542,7 @@
         <v>36</v>
       </c>
       <c r="D656">
-        <v>1596</v>
+        <v>1646.5</v>
       </c>
       <c r="E656">
         <v>1</v>
@@ -17568,7 +17568,7 @@
         <v>35</v>
       </c>
       <c r="D657">
-        <v>1596</v>
+        <v>1646.5</v>
       </c>
       <c r="E657">
         <v>1</v>
@@ -17594,7 +17594,7 @@
         <v>34</v>
       </c>
       <c r="D658">
-        <v>1596</v>
+        <v>1646.5</v>
       </c>
       <c r="E658">
         <v>1</v>
@@ -17620,7 +17620,7 @@
         <v>33</v>
       </c>
       <c r="D659">
-        <v>1596</v>
+        <v>1646.5</v>
       </c>
       <c r="E659">
         <v>1</v>
@@ -17646,7 +17646,7 @@
         <v>32</v>
       </c>
       <c r="D660">
-        <v>1596</v>
+        <v>1646.5</v>
       </c>
       <c r="E660">
         <v>1</v>
@@ -17672,7 +17672,7 @@
         <v>31</v>
       </c>
       <c r="D661">
-        <v>1596</v>
+        <v>1643.5</v>
       </c>
       <c r="E661">
         <v>1</v>
@@ -17698,7 +17698,7 @@
         <v>30</v>
       </c>
       <c r="D662">
-        <v>1528.5</v>
+        <v>1574.5</v>
       </c>
       <c r="E662">
         <v>1</v>
@@ -17724,7 +17724,7 @@
         <v>29</v>
       </c>
       <c r="D663">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E663">
         <v>1</v>
@@ -17750,7 +17750,7 @@
         <v>28</v>
       </c>
       <c r="D664">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E664">
         <v>1</v>
@@ -17776,7 +17776,7 @@
         <v>27</v>
       </c>
       <c r="D665">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E665">
         <v>1</v>
@@ -17802,7 +17802,7 @@
         <v>26</v>
       </c>
       <c r="D666">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E666">
         <v>1</v>
@@ -17828,7 +17828,7 @@
         <v>25</v>
       </c>
       <c r="D667">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E667">
         <v>1</v>
@@ -17854,7 +17854,7 @@
         <v>24</v>
       </c>
       <c r="D668">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E668">
         <v>1</v>
@@ -17880,7 +17880,7 @@
         <v>23</v>
       </c>
       <c r="D669">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E669">
         <v>1</v>
@@ -17906,7 +17906,7 @@
         <v>22</v>
       </c>
       <c r="D670">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E670">
         <v>1</v>
@@ -17932,7 +17932,7 @@
         <v>21</v>
       </c>
       <c r="D671">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E671">
         <v>1</v>
@@ -17958,7 +17958,7 @@
         <v>20</v>
       </c>
       <c r="D672">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E672">
         <v>1</v>
@@ -17984,7 +17984,7 @@
         <v>19</v>
       </c>
       <c r="D673">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E673">
         <v>1</v>
@@ -18010,7 +18010,7 @@
         <v>18</v>
       </c>
       <c r="D674">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E674">
         <v>1</v>
@@ -18036,7 +18036,7 @@
         <v>17</v>
       </c>
       <c r="D675">
-        <v>1514</v>
+        <v>1560.5</v>
       </c>
       <c r="E675">
         <v>1</v>
@@ -19674,7 +19674,7 @@
         <v>57</v>
       </c>
       <c r="D738">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E738">
         <v>1</v>
@@ -19700,7 +19700,7 @@
         <v>56</v>
       </c>
       <c r="D739">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E739">
         <v>1</v>
@@ -19726,7 +19726,7 @@
         <v>55</v>
       </c>
       <c r="D740">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E740">
         <v>1</v>
@@ -19804,7 +19804,7 @@
         <v>52</v>
       </c>
       <c r="D743">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E743">
         <v>1</v>
@@ -19830,7 +19830,7 @@
         <v>51</v>
       </c>
       <c r="D744">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E744">
         <v>1</v>
@@ -19986,7 +19986,7 @@
         <v>45</v>
       </c>
       <c r="D750">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E750">
         <v>1</v>
@@ -20038,7 +20038,7 @@
         <v>43</v>
       </c>
       <c r="D752">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E752">
         <v>1</v>
@@ -20064,7 +20064,7 @@
         <v>42</v>
       </c>
       <c r="D753">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E753">
         <v>1</v>
@@ -20090,7 +20090,7 @@
         <v>41</v>
       </c>
       <c r="D754">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E754">
         <v>1</v>
@@ -20116,7 +20116,7 @@
         <v>40</v>
       </c>
       <c r="D755">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E755">
         <v>1</v>
@@ -20142,7 +20142,7 @@
         <v>39</v>
       </c>
       <c r="D756">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E756">
         <v>1</v>
@@ -20168,7 +20168,7 @@
         <v>38</v>
       </c>
       <c r="D757">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E757">
         <v>1</v>
@@ -20220,7 +20220,7 @@
         <v>36</v>
       </c>
       <c r="D759">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E759">
         <v>1</v>
@@ -20246,7 +20246,7 @@
         <v>35</v>
       </c>
       <c r="D760">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E760">
         <v>1</v>
@@ -20350,7 +20350,7 @@
         <v>31</v>
       </c>
       <c r="D764">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E764">
         <v>1</v>
@@ -20376,7 +20376,7 @@
         <v>30</v>
       </c>
       <c r="D765">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E765">
         <v>1</v>
@@ -20454,7 +20454,7 @@
         <v>27</v>
       </c>
       <c r="D768">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E768">
         <v>1</v>
@@ -20480,7 +20480,7 @@
         <v>26</v>
       </c>
       <c r="D769">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E769">
         <v>1</v>
@@ -20532,7 +20532,7 @@
         <v>24</v>
       </c>
       <c r="D771">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E771">
         <v>1</v>
@@ -20558,7 +20558,7 @@
         <v>23</v>
       </c>
       <c r="D772">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E772">
         <v>1</v>
@@ -20584,7 +20584,7 @@
         <v>22</v>
       </c>
       <c r="D773">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E773">
         <v>1</v>
@@ -20610,7 +20610,7 @@
         <v>21</v>
       </c>
       <c r="D774">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E774">
         <v>1</v>
@@ -20636,7 +20636,7 @@
         <v>20</v>
       </c>
       <c r="D775">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E775">
         <v>1</v>
@@ -20662,7 +20662,7 @@
         <v>19</v>
       </c>
       <c r="D776">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E776">
         <v>1</v>
@@ -20688,7 +20688,7 @@
         <v>18</v>
       </c>
       <c r="D777">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E777">
         <v>1</v>
@@ -20714,7 +20714,7 @@
         <v>17</v>
       </c>
       <c r="D778">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E778">
         <v>1</v>
@@ -20740,7 +20740,7 @@
         <v>16</v>
       </c>
       <c r="D779">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E779">
         <v>1</v>
@@ -20766,7 +20766,7 @@
         <v>15</v>
       </c>
       <c r="D780">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E780">
         <v>1</v>
@@ -20792,7 +20792,7 @@
         <v>14</v>
       </c>
       <c r="D781">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E781">
         <v>1</v>
@@ -20818,7 +20818,7 @@
         <v>13</v>
       </c>
       <c r="D782">
-        <v>1570</v>
+        <v>1590.5</v>
       </c>
       <c r="E782">
         <v>1</v>
@@ -26460,7 +26460,7 @@
         <v>145</v>
       </c>
       <c r="D999">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E999">
         <v>1</v>
@@ -26486,7 +26486,7 @@
         <v>144</v>
       </c>
       <c r="D1000">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1000">
         <v>1</v>
@@ -26616,7 +26616,7 @@
         <v>139</v>
       </c>
       <c r="D1005">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1005">
         <v>1</v>
@@ -26694,7 +26694,7 @@
         <v>136</v>
       </c>
       <c r="D1008">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1008">
         <v>1</v>
@@ -26720,7 +26720,7 @@
         <v>135</v>
       </c>
       <c r="D1009">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1009">
         <v>1</v>
@@ -26746,7 +26746,7 @@
         <v>134</v>
       </c>
       <c r="D1010">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1010">
         <v>1</v>
@@ -26772,7 +26772,7 @@
         <v>133</v>
       </c>
       <c r="D1011">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1011">
         <v>1</v>
@@ -27890,7 +27890,7 @@
         <v>90</v>
       </c>
       <c r="D1054">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1054">
         <v>1</v>
@@ -27916,7 +27916,7 @@
         <v>89</v>
       </c>
       <c r="D1055">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1055">
         <v>1</v>
@@ -28046,7 +28046,7 @@
         <v>84</v>
       </c>
       <c r="D1060">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1060">
         <v>1</v>
@@ -28072,7 +28072,7 @@
         <v>83</v>
       </c>
       <c r="D1061">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1061">
         <v>1</v>
@@ -28150,7 +28150,7 @@
         <v>80</v>
       </c>
       <c r="D1064">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1064">
         <v>1</v>
@@ -28176,7 +28176,7 @@
         <v>79</v>
       </c>
       <c r="D1065">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1065">
         <v>1</v>
@@ -28202,7 +28202,7 @@
         <v>78</v>
       </c>
       <c r="D1066">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1066">
         <v>1</v>
@@ -28228,7 +28228,7 @@
         <v>77</v>
       </c>
       <c r="D1067">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1067">
         <v>1</v>
@@ -28254,7 +28254,7 @@
         <v>76</v>
       </c>
       <c r="D1068">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1068">
         <v>1</v>
@@ -28280,7 +28280,7 @@
         <v>75</v>
       </c>
       <c r="D1069">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1069">
         <v>1</v>
@@ -28306,7 +28306,7 @@
         <v>74</v>
       </c>
       <c r="D1070">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1070">
         <v>1</v>
@@ -28332,7 +28332,7 @@
         <v>73</v>
       </c>
       <c r="D1071">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1071">
         <v>1</v>
@@ -28358,7 +28358,7 @@
         <v>72</v>
       </c>
       <c r="D1072">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1072">
         <v>1</v>
@@ -28384,7 +28384,7 @@
         <v>71</v>
       </c>
       <c r="D1073">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1073">
         <v>1</v>
@@ -28410,7 +28410,7 @@
         <v>70</v>
       </c>
       <c r="D1074">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1074">
         <v>1</v>
@@ -28436,7 +28436,7 @@
         <v>69</v>
       </c>
       <c r="D1075">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1075">
         <v>1</v>
@@ -28462,7 +28462,7 @@
         <v>68</v>
       </c>
       <c r="D1076">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1076">
         <v>1</v>
@@ -28488,7 +28488,7 @@
         <v>67</v>
       </c>
       <c r="D1077">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1077">
         <v>1</v>
@@ -28514,7 +28514,7 @@
         <v>66</v>
       </c>
       <c r="D1078">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1078">
         <v>1</v>
@@ -28540,7 +28540,7 @@
         <v>65</v>
       </c>
       <c r="D1079">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1079">
         <v>1</v>
@@ -28566,7 +28566,7 @@
         <v>64</v>
       </c>
       <c r="D1080">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1080">
         <v>1</v>
@@ -28592,7 +28592,7 @@
         <v>63</v>
       </c>
       <c r="D1081">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1081">
         <v>1</v>
@@ -28618,7 +28618,7 @@
         <v>62</v>
       </c>
       <c r="D1082">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1082">
         <v>1</v>
@@ -28644,7 +28644,7 @@
         <v>61</v>
       </c>
       <c r="D1083">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1083">
         <v>1</v>
@@ -28670,7 +28670,7 @@
         <v>60</v>
       </c>
       <c r="D1084">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1084">
         <v>1</v>
@@ -28696,7 +28696,7 @@
         <v>59</v>
       </c>
       <c r="D1085">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1085">
         <v>1</v>
@@ -28722,7 +28722,7 @@
         <v>58</v>
       </c>
       <c r="D1086">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1086">
         <v>1</v>
@@ -28748,7 +28748,7 @@
         <v>57</v>
       </c>
       <c r="D1087">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1087">
         <v>1</v>
@@ -28774,7 +28774,7 @@
         <v>56</v>
       </c>
       <c r="D1088">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1088">
         <v>1</v>
@@ -28800,7 +28800,7 @@
         <v>55</v>
       </c>
       <c r="D1089">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1089">
         <v>1</v>
@@ -28826,7 +28826,7 @@
         <v>54</v>
       </c>
       <c r="D1090">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1090">
         <v>1</v>
@@ -28852,7 +28852,7 @@
         <v>53</v>
       </c>
       <c r="D1091">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1091">
         <v>1</v>
@@ -28878,7 +28878,7 @@
         <v>52</v>
       </c>
       <c r="D1092">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1092">
         <v>1</v>
@@ -28904,7 +28904,7 @@
         <v>51</v>
       </c>
       <c r="D1093">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1093">
         <v>1</v>
@@ -28930,7 +28930,7 @@
         <v>50</v>
       </c>
       <c r="D1094">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1094">
         <v>1</v>
@@ -28956,7 +28956,7 @@
         <v>49</v>
       </c>
       <c r="D1095">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1095">
         <v>1</v>
@@ -28982,7 +28982,7 @@
         <v>48</v>
       </c>
       <c r="D1096">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1096">
         <v>1</v>
@@ -29008,7 +29008,7 @@
         <v>47</v>
       </c>
       <c r="D1097">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1097">
         <v>1</v>
@@ -29034,7 +29034,7 @@
         <v>46</v>
       </c>
       <c r="D1098">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1098">
         <v>1</v>
@@ -29060,7 +29060,7 @@
         <v>45</v>
       </c>
       <c r="D1099">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1099">
         <v>1</v>
@@ -29086,7 +29086,7 @@
         <v>44</v>
       </c>
       <c r="D1100">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1100">
         <v>1</v>
@@ -29112,7 +29112,7 @@
         <v>43</v>
       </c>
       <c r="D1101">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1101">
         <v>1</v>
@@ -29138,7 +29138,7 @@
         <v>42</v>
       </c>
       <c r="D1102">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1102">
         <v>1</v>
@@ -29164,7 +29164,7 @@
         <v>41</v>
       </c>
       <c r="D1103">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1103">
         <v>1</v>
@@ -29190,7 +29190,7 @@
         <v>40</v>
       </c>
       <c r="D1104">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1104">
         <v>1</v>
@@ -29216,7 +29216,7 @@
         <v>39</v>
       </c>
       <c r="D1105">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1105">
         <v>1</v>
@@ -29242,7 +29242,7 @@
         <v>38</v>
       </c>
       <c r="D1106">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1106">
         <v>1</v>
@@ -29268,7 +29268,7 @@
         <v>37</v>
       </c>
       <c r="D1107">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1107">
         <v>1</v>
@@ -29294,7 +29294,7 @@
         <v>36</v>
       </c>
       <c r="D1108">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1108">
         <v>1</v>
@@ -29320,7 +29320,7 @@
         <v>35</v>
       </c>
       <c r="D1109">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1109">
         <v>1</v>
@@ -29346,7 +29346,7 @@
         <v>34</v>
       </c>
       <c r="D1110">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1110">
         <v>1</v>
@@ -29372,7 +29372,7 @@
         <v>33</v>
       </c>
       <c r="D1111">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1111">
         <v>1</v>
@@ -29398,7 +29398,7 @@
         <v>32</v>
       </c>
       <c r="D1112">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1112">
         <v>1</v>
@@ -29424,7 +29424,7 @@
         <v>31</v>
       </c>
       <c r="D1113">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1113">
         <v>1</v>
@@ -29450,7 +29450,7 @@
         <v>30</v>
       </c>
       <c r="D1114">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1114">
         <v>1</v>
@@ -29476,7 +29476,7 @@
         <v>29</v>
       </c>
       <c r="D1115">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1115">
         <v>1</v>
@@ -29502,7 +29502,7 @@
         <v>28</v>
       </c>
       <c r="D1116">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1116">
         <v>1</v>
@@ -29528,7 +29528,7 @@
         <v>27</v>
       </c>
       <c r="D1117">
-        <v>1622.5</v>
+        <v>1647.5</v>
       </c>
       <c r="E1117">
         <v>1</v>
@@ -29554,7 +29554,7 @@
         <v>26</v>
       </c>
       <c r="D1118">
-        <v>1600</v>
+        <v>1646</v>
       </c>
       <c r="E1118">
         <v>1</v>
@@ -29580,7 +29580,7 @@
         <v>25</v>
       </c>
       <c r="D1119">
-        <v>1600</v>
+        <v>1646</v>
       </c>
       <c r="E1119">
         <v>1</v>
@@ -29606,7 +29606,7 @@
         <v>24</v>
       </c>
       <c r="D1120">
-        <v>1600</v>
+        <v>1646</v>
       </c>
       <c r="E1120">
         <v>1</v>
@@ -30022,7 +30022,7 @@
         <v>9</v>
       </c>
       <c r="D1136">
-        <v>1615.5</v>
+        <v>1656</v>
       </c>
       <c r="E1136">
         <v>1</v>
@@ -30048,7 +30048,7 @@
         <v>8</v>
       </c>
       <c r="D1137">
-        <v>1590.5</v>
+        <v>1656</v>
       </c>
       <c r="E1137">
         <v>1</v>
@@ -30074,7 +30074,7 @@
         <v>7</v>
       </c>
       <c r="D1138">
-        <v>1545.5</v>
+        <v>1656</v>
       </c>
       <c r="E1138">
         <v>1</v>
@@ -30100,7 +30100,7 @@
         <v>8</v>
       </c>
       <c r="D1139">
-        <v>1822.5</v>
+        <v>1859.5</v>
       </c>
       <c r="E1139">
         <v>1</v>
@@ -34806,7 +34806,7 @@
         <v>20</v>
       </c>
       <c r="D1320">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1320">
         <v>1</v>
@@ -34832,7 +34832,7 @@
         <v>19</v>
       </c>
       <c r="D1321">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1321">
         <v>1</v>
@@ -34858,7 +34858,7 @@
         <v>18</v>
       </c>
       <c r="D1322">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1322">
         <v>1</v>
@@ -34884,7 +34884,7 @@
         <v>17</v>
       </c>
       <c r="D1323">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1323">
         <v>1</v>
@@ -34910,7 +34910,7 @@
         <v>16</v>
       </c>
       <c r="D1324">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1324">
         <v>1</v>
@@ -34936,7 +34936,7 @@
         <v>15</v>
       </c>
       <c r="D1325">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1325">
         <v>1</v>
@@ -34962,7 +34962,7 @@
         <v>14</v>
       </c>
       <c r="D1326">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1326">
         <v>1</v>
@@ -34988,7 +34988,7 @@
         <v>13</v>
       </c>
       <c r="D1327">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1327">
         <v>1</v>
@@ -35014,7 +35014,7 @@
         <v>12</v>
       </c>
       <c r="D1328">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1328">
         <v>1</v>
@@ -35040,7 +35040,7 @@
         <v>11</v>
       </c>
       <c r="D1329">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1329">
         <v>1</v>
@@ -35066,7 +35066,7 @@
         <v>10</v>
       </c>
       <c r="D1330">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1330">
         <v>1</v>
@@ -35092,7 +35092,7 @@
         <v>9</v>
       </c>
       <c r="D1331">
-        <v>1862</v>
+        <v>1880</v>
       </c>
       <c r="E1331">
         <v>1</v>
@@ -35118,7 +35118,7 @@
         <v>8</v>
       </c>
       <c r="D1332">
-        <v>1674.5</v>
+        <v>1760.5</v>
       </c>
       <c r="E1332">
         <v>1</v>
@@ -35166,11 +35166,11 @@
       <c r="A1334" s="2">
         <v>45491</v>
       </c>
-      <c r="B1334">
-        <v>40</v>
+      <c r="C1334">
+        <v>6</v>
       </c>
       <c r="D1334">
-        <v>1419.5</v>
+        <v>1561</v>
       </c>
       <c r="E1334">
         <v>1</v>
@@ -35182,21 +35182,21 @@
         <v>1</v>
       </c>
       <c r="H1334" s="2">
-        <v>45546</v>
+        <v>45498</v>
       </c>
       <c r="I1334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:9">
       <c r="A1335" s="2">
         <v>45492</v>
       </c>
-      <c r="B1335">
-        <v>39</v>
+      <c r="C1335">
+        <v>5</v>
       </c>
       <c r="D1335">
-        <v>1404.5</v>
+        <v>1561</v>
       </c>
       <c r="E1335">
         <v>1</v>
@@ -35208,21 +35208,21 @@
         <v>1</v>
       </c>
       <c r="H1335" s="2">
-        <v>45546</v>
+        <v>45498</v>
       </c>
       <c r="I1335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336" spans="1:9">
       <c r="A1336" s="2">
         <v>45495</v>
       </c>
-      <c r="B1336">
-        <v>38</v>
+      <c r="C1336">
+        <v>4</v>
       </c>
       <c r="D1336">
-        <v>1326.5</v>
+        <v>1561</v>
       </c>
       <c r="E1336">
         <v>1</v>
@@ -35234,10 +35234,10 @@
         <v>1</v>
       </c>
       <c r="H1336" s="2">
-        <v>45546</v>
+        <v>45498</v>
       </c>
       <c r="I1336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337" spans="1:9">
@@ -38732,7 +38732,7 @@
         <v>29</v>
       </c>
       <c r="D1471">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1471">
         <v>1</v>
@@ -38758,7 +38758,7 @@
         <v>28</v>
       </c>
       <c r="D1472">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1472">
         <v>1</v>
@@ -38784,7 +38784,7 @@
         <v>27</v>
       </c>
       <c r="D1473">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1473">
         <v>1</v>
@@ -38810,7 +38810,7 @@
         <v>26</v>
       </c>
       <c r="D1474">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1474">
         <v>1</v>
@@ -38836,7 +38836,7 @@
         <v>25</v>
       </c>
       <c r="D1475">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1475">
         <v>1</v>
@@ -38862,7 +38862,7 @@
         <v>24</v>
       </c>
       <c r="D1476">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1476">
         <v>1</v>
@@ -38888,7 +38888,7 @@
         <v>23</v>
       </c>
       <c r="D1477">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1477">
         <v>1</v>
@@ -38914,7 +38914,7 @@
         <v>22</v>
       </c>
       <c r="D1478">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1478">
         <v>1</v>
@@ -38940,7 +38940,7 @@
         <v>21</v>
       </c>
       <c r="D1479">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1479">
         <v>1</v>
@@ -38966,7 +38966,7 @@
         <v>20</v>
       </c>
       <c r="D1480">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1480">
         <v>1</v>
@@ -38992,7 +38992,7 @@
         <v>19</v>
       </c>
       <c r="D1481">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1481">
         <v>1</v>
@@ -39018,7 +39018,7 @@
         <v>18</v>
       </c>
       <c r="D1482">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1482">
         <v>1</v>
@@ -39044,7 +39044,7 @@
         <v>17</v>
       </c>
       <c r="D1483">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1483">
         <v>1</v>
@@ -39070,7 +39070,7 @@
         <v>16</v>
       </c>
       <c r="D1484">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1484">
         <v>1</v>
@@ -39096,7 +39096,7 @@
         <v>15</v>
       </c>
       <c r="D1485">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1485">
         <v>1</v>
@@ -39122,7 +39122,7 @@
         <v>14</v>
       </c>
       <c r="D1486">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1486">
         <v>1</v>
@@ -39148,7 +39148,7 @@
         <v>13</v>
       </c>
       <c r="D1487">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1487">
         <v>1</v>
@@ -39174,7 +39174,7 @@
         <v>12</v>
       </c>
       <c r="D1488">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1488">
         <v>1</v>
@@ -39200,7 +39200,7 @@
         <v>11</v>
       </c>
       <c r="D1489">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1489">
         <v>1</v>
@@ -39226,7 +39226,7 @@
         <v>10</v>
       </c>
       <c r="D1490">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1490">
         <v>1</v>
@@ -39252,7 +39252,7 @@
         <v>9</v>
       </c>
       <c r="D1491">
-        <v>1763.5</v>
+        <v>2002</v>
       </c>
       <c r="E1491">
         <v>1</v>
@@ -39278,7 +39278,7 @@
         <v>8</v>
       </c>
       <c r="D1492">
-        <v>1749.5</v>
+        <v>2002</v>
       </c>
       <c r="E1492">
         <v>1</v>
@@ -39304,7 +39304,7 @@
         <v>7</v>
       </c>
       <c r="D1493">
-        <v>1715.5</v>
+        <v>1725</v>
       </c>
       <c r="E1493">
         <v>1</v>
@@ -39330,7 +39330,7 @@
         <v>6</v>
       </c>
       <c r="D1494">
-        <v>1715.5</v>
+        <v>1725</v>
       </c>
       <c r="E1494">
         <v>1</v>
@@ -39356,7 +39356,7 @@
         <v>5</v>
       </c>
       <c r="D1495">
-        <v>1715.5</v>
+        <v>1725</v>
       </c>
       <c r="E1495">
         <v>1</v>
@@ -39382,7 +39382,7 @@
         <v>4</v>
       </c>
       <c r="D1496">
-        <v>1715.5</v>
+        <v>1725</v>
       </c>
       <c r="E1496">
         <v>1</v>
@@ -39434,7 +39434,7 @@
         <v>21</v>
       </c>
       <c r="D1498">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1498">
         <v>1</v>
@@ -39460,7 +39460,7 @@
         <v>20</v>
       </c>
       <c r="D1499">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1499">
         <v>1</v>
@@ -39538,7 +39538,7 @@
         <v>17</v>
       </c>
       <c r="D1502">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1502">
         <v>1</v>
@@ -39564,7 +39564,7 @@
         <v>16</v>
       </c>
       <c r="D1503">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1503">
         <v>1</v>
@@ -39590,7 +39590,7 @@
         <v>15</v>
       </c>
       <c r="D1504">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1504">
         <v>1</v>
@@ -39616,7 +39616,7 @@
         <v>14</v>
       </c>
       <c r="D1505">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1505">
         <v>1</v>
@@ -39642,7 +39642,7 @@
         <v>13</v>
       </c>
       <c r="D1506">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1506">
         <v>1</v>
@@ -39668,7 +39668,7 @@
         <v>12</v>
       </c>
       <c r="D1507">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1507">
         <v>1</v>
@@ -39694,7 +39694,7 @@
         <v>11</v>
       </c>
       <c r="D1508">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1508">
         <v>1</v>
@@ -39720,7 +39720,7 @@
         <v>10</v>
       </c>
       <c r="D1509">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1509">
         <v>1</v>
@@ -39746,7 +39746,7 @@
         <v>9</v>
       </c>
       <c r="D1510">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1510">
         <v>1</v>
@@ -39772,7 +39772,7 @@
         <v>8</v>
       </c>
       <c r="D1511">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1511">
         <v>1</v>
@@ -39798,7 +39798,7 @@
         <v>7</v>
       </c>
       <c r="D1512">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1512">
         <v>1</v>
@@ -39824,7 +39824,7 @@
         <v>6</v>
       </c>
       <c r="D1513">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1513">
         <v>1</v>
@@ -39850,7 +39850,7 @@
         <v>5</v>
       </c>
       <c r="D1514">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1514">
         <v>1</v>
@@ -39876,7 +39876,7 @@
         <v>4</v>
       </c>
       <c r="D1515">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1515">
         <v>1</v>
@@ -39902,7 +39902,7 @@
         <v>3</v>
       </c>
       <c r="D1516">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1516">
         <v>1</v>
@@ -39928,7 +39928,7 @@
         <v>2</v>
       </c>
       <c r="D1517">
-        <v>2298.5</v>
+        <v>2470</v>
       </c>
       <c r="E1517">
         <v>1</v>
@@ -42163,7 +42163,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>48.02</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -42171,7 +42171,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -42179,7 +42179,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>28.77</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -42211,7 +42211,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1235</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -42219,7 +42219,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>302</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -42264,7 +42264,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>36.1</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -42272,7 +42272,7 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -42290,7 +42290,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42597,7 +42597,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -42605,7 +42605,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -42613,7 +42613,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -42741,7 +42741,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -42749,7 +42749,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -42757,7 +42757,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -42765,7 +42765,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -42773,7 +42773,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -42885,7 +42885,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -42909,7 +42909,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -42917,7 +42917,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -42925,7 +42925,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -42933,7 +42933,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -42941,7 +42941,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -42949,7 +42949,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -42957,7 +42957,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -42965,7 +42965,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -43157,7 +43157,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -43173,7 +43173,7 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -43181,12 +43181,12 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -43194,7 +43194,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -43202,7 +43202,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -43210,15 +43210,15 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -43226,15 +43226,15 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -43242,129 +43242,9 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>124</v>
-      </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121">
-        <v>125</v>
-      </c>
-      <c r="B121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122">
-        <v>126</v>
-      </c>
-      <c r="B122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123">
-        <v>127</v>
-      </c>
-      <c r="B123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124">
-        <v>128</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
-        <v>129</v>
-      </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
-        <v>130</v>
-      </c>
-      <c r="B126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127">
-        <v>131</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128">
-        <v>132</v>
-      </c>
-      <c r="B128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>135</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>136</v>
-      </c>
-      <c r="B130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>137</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
-        <v>138</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
-        <v>139</v>
-      </c>
-      <c r="B133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134">
-        <v>144</v>
-      </c>
-      <c r="B134">
         <v>1</v>
       </c>
     </row>
